--- a/PricerAndQutation/OptionPricer_v2_20180104.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180104.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -1838,66 +1838,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1970,6 +1910,66 @@
     <xf numFmtId="2" fontId="5" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1994,21 +1994,21 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>14115</v>
+        <v>14025</v>
         <stp/>
         <stp>ru1805</stp>
         <stp>LastPrice</stp>
         <tr r="H19" s="1"/>
       </tp>
       <tp>
-        <v>1367</v>
+        <v>1332.5</v>
         <stp/>
         <stp>jm1805</stp>
         <stp>LastPrice</stp>
         <tr r="H20" s="1"/>
       </tp>
       <tp>
-        <v>2090</v>
+        <v>2043</v>
         <stp/>
         <stp>j1805</stp>
         <stp>LastPrice</stp>
@@ -2016,28 +2016,28 @@
         <tr r="H28" s="1"/>
       </tp>
       <tp>
-        <v>543.5</v>
+        <v>530</v>
         <stp/>
         <stp>i1805</stp>
         <stp>LastPrice</stp>
         <tr r="H21" s="1"/>
       </tp>
       <tp>
-        <v>3819</v>
+        <v>3762</v>
         <stp/>
         <stp>rb1805</stp>
         <stp>LastPrice</stp>
         <tr r="H22" s="1"/>
       </tp>
       <tp>
-        <v>3877</v>
+        <v>3796</v>
         <stp/>
         <stp>hc1805</stp>
         <stp>LastPrice</stp>
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>15010</v>
+        <v>15045</v>
         <stp/>
         <stp>cf805</stp>
         <stp>LastPrice</stp>
@@ -2046,32 +2046,32 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>3715</v>
+        <v>3664</v>
         <stp/>
         <stp>hc1810</stp>
         <stp>LastPrice</stp>
+        <tr r="H31" s="1"/>
         <tr r="H30" s="1"/>
-        <tr r="H31" s="1"/>
         <tr r="H32" s="1"/>
       </tp>
       <tp>
-        <v>3638</v>
+        <v>3601</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="H29" s="1"/>
       </tp>
-      <tp>
-        <v>3819</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="H8" s="1"/>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
       <tp>
-        <v>3638</v>
+        <v>3601</v>
         <stp/>
         <stp>RB1810</stp>
         <stp>LastPrice</stp>
@@ -2392,11 +2392,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
     </row>
     <row r="2" spans="1:17" ht="12" thickTop="1"/>
     <row r="3" spans="1:17">
@@ -3187,7 +3187,7 @@
       <c r="P23" s="59">
         <v>0</v>
       </c>
-      <c r="Q23" s="174">
+      <c r="Q23" s="154">
         <v>33.460894798083245</v>
       </c>
     </row>
@@ -3237,110 +3237,110 @@
       <c r="P24" s="59">
         <v>0</v>
       </c>
-      <c r="Q24" s="174">
+      <c r="Q24" s="154">
         <v>46.241104016573217</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="12" thickBot="1">
-      <c r="B25" s="187" t="s">
+      <c r="B25" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="187">
+      <c r="C25" s="167">
         <v>1</v>
       </c>
-      <c r="D25" s="187" t="s">
+      <c r="D25" s="167" t="s">
         <v>242</v>
       </c>
-      <c r="E25" s="187" t="s">
+      <c r="E25" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="188">
+      <c r="F25" s="168">
         <v>3715</v>
       </c>
-      <c r="G25" s="187">
+      <c r="G25" s="167">
         <v>3600</v>
       </c>
-      <c r="H25" s="189">
+      <c r="H25" s="169">
         <v>43104</v>
       </c>
-      <c r="I25" s="189">
+      <c r="I25" s="169">
         <v>43167</v>
       </c>
-      <c r="J25" s="187">
+      <c r="J25" s="167">
         <v>63</v>
       </c>
-      <c r="K25" s="190">
+      <c r="K25" s="170">
         <v>0.15890410958904111</v>
       </c>
-      <c r="L25" s="190">
-        <v>0</v>
-      </c>
-      <c r="M25" s="187">
+      <c r="L25" s="170">
+        <v>0</v>
+      </c>
+      <c r="M25" s="167">
         <v>0.19</v>
       </c>
-      <c r="N25" s="191">
+      <c r="N25" s="171">
         <v>62.171558643156686</v>
       </c>
-      <c r="O25" s="187">
-        <v>0</v>
-      </c>
-      <c r="P25" s="191">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="192">
+      <c r="O25" s="167">
+        <v>0</v>
+      </c>
+      <c r="P25" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="172">
         <v>62.171558643156686</v>
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="194" t="s">
+      <c r="B26" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195" t="s">
+      <c r="C26" s="175"/>
+      <c r="D26" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="195" t="s">
+      <c r="E26" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="195" t="s">
+      <c r="F26" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="195" t="s">
+      <c r="G26" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="195" t="s">
+      <c r="H26" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="195" t="s">
+      <c r="I26" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="195" t="s">
+      <c r="J26" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="195" t="s">
+      <c r="K26" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="195" t="s">
+      <c r="L26" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="195" t="s">
+      <c r="M26" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="195" t="s">
+      <c r="N26" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="195" t="s">
+      <c r="O26" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="195" t="s">
+      <c r="P26" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="196" t="s">
+      <c r="Q26" s="176" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="197" t="s">
+      <c r="B27" s="177" t="s">
         <v>151</v>
       </c>
       <c r="C27" s="50">
@@ -3385,12 +3385,12 @@
       <c r="P27" s="54">
         <v>0</v>
       </c>
-      <c r="Q27" s="198">
+      <c r="Q27" s="178">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="177" t="s">
         <v>151</v>
       </c>
       <c r="C28" s="50">
@@ -3435,12 +3435,12 @@
       <c r="P28" s="54">
         <v>0</v>
       </c>
-      <c r="Q28" s="198">
+      <c r="Q28" s="178">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="197" t="s">
+      <c r="B29" s="177" t="s">
         <v>151</v>
       </c>
       <c r="C29" s="50">
@@ -3485,12 +3485,12 @@
       <c r="P29" s="54">
         <v>0</v>
       </c>
-      <c r="Q29" s="198">
+      <c r="Q29" s="178">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="197" t="s">
+      <c r="B30" s="177" t="s">
         <v>151</v>
       </c>
       <c r="C30" s="50">
@@ -3535,12 +3535,12 @@
       <c r="P30" s="54">
         <v>0</v>
       </c>
-      <c r="Q30" s="198">
+      <c r="Q30" s="178">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="197" t="s">
+      <c r="B31" s="177" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="50">
@@ -3585,57 +3585,57 @@
       <c r="P31" s="54">
         <v>0</v>
       </c>
-      <c r="Q31" s="198">
+      <c r="Q31" s="178">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="12" thickBot="1">
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="200">
+      <c r="C32" s="180">
         <v>1</v>
       </c>
-      <c r="D32" s="200" t="s">
+      <c r="D32" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="200" t="s">
+      <c r="E32" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="201">
+      <c r="F32" s="181">
         <v>546</v>
       </c>
-      <c r="G32" s="200">
+      <c r="G32" s="180">
         <v>550</v>
       </c>
-      <c r="H32" s="202">
+      <c r="H32" s="182">
         <v>43104</v>
       </c>
-      <c r="I32" s="202">
+      <c r="I32" s="182">
         <v>43141</v>
       </c>
-      <c r="J32" s="200">
+      <c r="J32" s="180">
         <v>37</v>
       </c>
-      <c r="K32" s="203">
+      <c r="K32" s="183">
         <v>0.10136986301369863</v>
       </c>
-      <c r="L32" s="203">
-        <v>0</v>
-      </c>
-      <c r="M32" s="200">
+      <c r="L32" s="183">
+        <v>0</v>
+      </c>
+      <c r="M32" s="180">
         <v>0.32</v>
       </c>
-      <c r="N32" s="204">
+      <c r="N32" s="184">
         <v>24.272012559127006</v>
       </c>
-      <c r="O32" s="200">
-        <v>0</v>
-      </c>
-      <c r="P32" s="204">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="205">
+      <c r="O32" s="180">
+        <v>0</v>
+      </c>
+      <c r="P32" s="184">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="185">
         <v>24</v>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
-      <c r="F33" s="193"/>
+      <c r="F33" s="173"/>
       <c r="G33" s="55"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
@@ -3762,9 +3762,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3779,63 +3779,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="169"/>
+      <c r="C1" s="198"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="197" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="G3" s="171" t="s">
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="G3" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="L3" s="170" t="s">
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="L3" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="Q3" s="171" t="s">
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="Q3" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="G4" s="165" t="s">
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="G4" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="L4" s="165" t="s">
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="L4" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="Q4" s="165" t="s">
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="Q4" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="33" t="s">
@@ -3844,10 +3844,10 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="168" t="s">
+      <c r="G5" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="168"/>
+      <c r="H5" s="193"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -3856,360 +3856,360 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="168" t="s">
+      <c r="Q5" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="168"/>
+      <c r="R5" s="193"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156" t="s">
+      <c r="C6" s="190"/>
+      <c r="D6" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="G6" s="168" t="s">
+      <c r="E6" s="192"/>
+      <c r="G6" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="168"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="157"/>
-      <c r="L6" s="155" t="s">
+      <c r="H6" s="193"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="192"/>
+      <c r="L6" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156" t="s">
+      <c r="M6" s="190"/>
+      <c r="N6" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="157"/>
-      <c r="Q6" s="168" t="s">
+      <c r="O6" s="192"/>
+      <c r="Q6" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="168"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="157"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="192"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="192"/>
+      <c r="G7" s="193" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="157"/>
-      <c r="L7" s="155" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="192"/>
+      <c r="L7" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="155"/>
-      <c r="N7" s="156" t="s">
+      <c r="M7" s="190"/>
+      <c r="N7" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="157"/>
-      <c r="Q7" s="168" t="s">
+      <c r="O7" s="192"/>
+      <c r="Q7" s="193" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="168"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="157"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="192"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="156">
+      <c r="C8" s="190"/>
+      <c r="D8" s="191">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="157"/>
-      <c r="G8" s="168" t="s">
+      <c r="E8" s="192"/>
+      <c r="G8" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="157"/>
-      <c r="L8" s="155" t="s">
+      <c r="H8" s="193"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="192"/>
+      <c r="L8" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="155"/>
-      <c r="N8" s="156">
+      <c r="M8" s="190"/>
+      <c r="N8" s="191">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="157"/>
-      <c r="Q8" s="168" t="s">
+      <c r="O8" s="192"/>
+      <c r="Q8" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="168"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="157"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="192"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156" t="s">
+      <c r="C9" s="190"/>
+      <c r="D9" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="157"/>
-      <c r="G9" s="168" t="s">
+      <c r="E9" s="192"/>
+      <c r="G9" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="168"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
-      <c r="L9" s="155" t="s">
+      <c r="H9" s="193"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="192"/>
+      <c r="L9" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="155"/>
-      <c r="N9" s="156" t="s">
+      <c r="M9" s="190"/>
+      <c r="N9" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="157"/>
-      <c r="Q9" s="168" t="s">
+      <c r="O9" s="192"/>
+      <c r="Q9" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="168"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="157"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="191"/>
+      <c r="T9" s="192"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156">
+      <c r="C10" s="190"/>
+      <c r="D10" s="191">
         <v>43084</v>
       </c>
-      <c r="E10" s="157"/>
+      <c r="E10" s="192"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
-      <c r="L10" s="155" t="s">
+      <c r="I10" s="191"/>
+      <c r="J10" s="192"/>
+      <c r="L10" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="155"/>
-      <c r="N10" s="156">
+      <c r="M10" s="190"/>
+      <c r="N10" s="191">
         <v>43084</v>
       </c>
-      <c r="O10" s="157"/>
+      <c r="O10" s="192"/>
       <c r="Q10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="62"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="157"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="192"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="190" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156">
+      <c r="C11" s="190"/>
+      <c r="D11" s="191">
         <v>3935</v>
       </c>
-      <c r="E11" s="157"/>
-      <c r="G11" s="168" t="s">
+      <c r="E11" s="192"/>
+      <c r="G11" s="193" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
-      <c r="L11" s="155" t="s">
+      <c r="H11" s="193"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="192"/>
+      <c r="L11" s="190" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="155"/>
-      <c r="N11" s="156">
+      <c r="M11" s="190"/>
+      <c r="N11" s="191">
         <v>3935</v>
       </c>
-      <c r="O11" s="157"/>
-      <c r="Q11" s="168" t="s">
+      <c r="O11" s="192"/>
+      <c r="Q11" s="193" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="168"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="157"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="191"/>
+      <c r="T11" s="192"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="156">
+      <c r="C12" s="190"/>
+      <c r="D12" s="191">
         <v>3800</v>
       </c>
-      <c r="E12" s="157"/>
-      <c r="G12" s="168" t="s">
+      <c r="E12" s="192"/>
+      <c r="G12" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="168"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="157"/>
-      <c r="L12" s="155" t="s">
+      <c r="H12" s="193"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="192"/>
+      <c r="L12" s="190" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156">
+      <c r="M12" s="190"/>
+      <c r="N12" s="191">
         <v>3800</v>
       </c>
-      <c r="O12" s="157"/>
-      <c r="Q12" s="168" t="s">
+      <c r="O12" s="192"/>
+      <c r="Q12" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="168"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="157"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="191"/>
+      <c r="T12" s="192"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156">
+      <c r="C13" s="190"/>
+      <c r="D13" s="191">
         <v>61</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="G13" s="168" t="s">
+      <c r="E13" s="192"/>
+      <c r="G13" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="168"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
-      <c r="L13" s="155" t="s">
+      <c r="H13" s="193"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="192"/>
+      <c r="L13" s="190" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="155"/>
-      <c r="N13" s="156">
+      <c r="M13" s="190"/>
+      <c r="N13" s="191">
         <v>3800</v>
       </c>
-      <c r="O13" s="157"/>
-      <c r="Q13" s="168" t="s">
+      <c r="O13" s="192"/>
+      <c r="Q13" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="168"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="157"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="191"/>
+      <c r="T13" s="192"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156" t="s">
+      <c r="C14" s="190"/>
+      <c r="D14" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="157"/>
-      <c r="G14" s="168" t="s">
+      <c r="E14" s="192"/>
+      <c r="G14" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="168"/>
+      <c r="H14" s="193"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="155" t="s">
+      <c r="L14" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="155"/>
-      <c r="N14" s="156">
+      <c r="M14" s="190"/>
+      <c r="N14" s="191">
         <v>61</v>
       </c>
-      <c r="O14" s="157"/>
-      <c r="Q14" s="168" t="s">
+      <c r="O14" s="192"/>
+      <c r="Q14" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="168"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="157"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="192"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="190" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156">
+      <c r="C15" s="190"/>
+      <c r="D15" s="191">
         <v>5000</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="G15" s="168" t="s">
+      <c r="E15" s="192"/>
+      <c r="G15" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="168"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="157"/>
-      <c r="L15" s="155" t="s">
+      <c r="H15" s="193"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="192"/>
+      <c r="L15" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="155"/>
-      <c r="N15" s="156" t="s">
+      <c r="M15" s="190"/>
+      <c r="N15" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="157"/>
-      <c r="Q15" s="168" t="s">
+      <c r="O15" s="192"/>
+      <c r="Q15" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="168"/>
+      <c r="R15" s="193"/>
       <c r="S15" s="60"/>
       <c r="T15" s="61"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161" t="s">
+      <c r="C16" s="196"/>
+      <c r="D16" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="G16" s="164" t="s">
+      <c r="E16" s="189"/>
+      <c r="G16" s="187" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="164"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162"/>
-      <c r="L16" s="155" t="s">
+      <c r="H16" s="187"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
+      <c r="L16" s="190" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="155"/>
-      <c r="N16" s="156">
+      <c r="M16" s="190"/>
+      <c r="N16" s="191">
         <v>5000</v>
       </c>
-      <c r="O16" s="157"/>
-      <c r="Q16" s="168" t="s">
+      <c r="O16" s="192"/>
+      <c r="Q16" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="168"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="157"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="192"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="160" t="s">
+      <c r="L17" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="160"/>
-      <c r="N17" s="161" t="s">
+      <c r="M17" s="196"/>
+      <c r="N17" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="162"/>
-      <c r="Q17" s="164" t="s">
+      <c r="O17" s="189"/>
+      <c r="Q17" s="187" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="164"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="162"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="189"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -4228,274 +4228,351 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="G22" s="165" t="s">
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="G22" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="166">
+      <c r="D23" s="202">
         <v>43104</v>
       </c>
-      <c r="E23" s="167"/>
+      <c r="E23" s="203"/>
       <c r="G23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="166">
+      <c r="I23" s="202">
         <v>43098</v>
       </c>
-      <c r="J23" s="167"/>
+      <c r="J23" s="203"/>
     </row>
     <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156" t="s">
+      <c r="C24" s="190"/>
+      <c r="D24" s="191" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="G24" s="155" t="s">
+      <c r="E24" s="192"/>
+      <c r="G24" s="190" t="s">
         <v>222</v>
       </c>
-      <c r="H24" s="155"/>
-      <c r="I24" s="156" t="s">
+      <c r="H24" s="190"/>
+      <c r="I24" s="191" t="s">
         <v>217</v>
       </c>
-      <c r="J24" s="157"/>
+      <c r="J24" s="192"/>
     </row>
     <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156" t="s">
+      <c r="C25" s="190"/>
+      <c r="D25" s="191" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="G25" s="155" t="s">
+      <c r="E25" s="192"/>
+      <c r="G25" s="190" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="155"/>
-      <c r="I25" s="156">
+      <c r="H25" s="190"/>
+      <c r="I25" s="191">
         <v>9375</v>
       </c>
-      <c r="J25" s="157"/>
+      <c r="J25" s="192"/>
     </row>
     <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="158">
+      <c r="C26" s="190"/>
+      <c r="D26" s="199">
         <f>D31*D33</f>
         <v>300000</v>
       </c>
-      <c r="E26" s="159"/>
+      <c r="E26" s="200"/>
       <c r="G26" s="121" t="s">
         <v>220</v>
       </c>
       <c r="H26" s="121"/>
-      <c r="I26" s="156" t="s">
+      <c r="I26" s="191" t="s">
         <v>223</v>
       </c>
-      <c r="J26" s="157" t="s">
+      <c r="J26" s="192" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156" t="s">
+      <c r="C27" s="190"/>
+      <c r="D27" s="191" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="157"/>
-      <c r="G27" s="155" t="s">
+      <c r="E27" s="192"/>
+      <c r="G27" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156" t="s">
+      <c r="H27" s="190"/>
+      <c r="I27" s="191" t="s">
         <v>214</v>
       </c>
-      <c r="J27" s="157"/>
+      <c r="J27" s="192"/>
     </row>
     <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="155"/>
-      <c r="D28" s="163">
+      <c r="C28" s="190"/>
+      <c r="D28" s="201">
         <v>43167</v>
       </c>
-      <c r="E28" s="157"/>
-      <c r="G28" s="155" t="s">
+      <c r="E28" s="192"/>
+      <c r="G28" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="163">
+      <c r="H28" s="190"/>
+      <c r="I28" s="201">
         <v>43159</v>
       </c>
-      <c r="J28" s="157"/>
+      <c r="J28" s="192"/>
     </row>
     <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="190" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156">
+      <c r="C29" s="190"/>
+      <c r="D29" s="191">
         <v>3636</v>
       </c>
-      <c r="E29" s="157"/>
-      <c r="G29" s="155" t="s">
+      <c r="E29" s="192"/>
+      <c r="G29" s="190" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="155"/>
-      <c r="I29" s="156">
+      <c r="H29" s="190"/>
+      <c r="I29" s="191">
         <v>9770</v>
       </c>
-      <c r="J29" s="157"/>
+      <c r="J29" s="192"/>
     </row>
     <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156">
+      <c r="C30" s="190"/>
+      <c r="D30" s="191">
         <v>3550</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="G30" s="155" t="s">
+      <c r="E30" s="192"/>
+      <c r="G30" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="H30" s="155"/>
+      <c r="H30" s="190"/>
       <c r="I30" s="122"/>
       <c r="J30" s="123">
         <v>9500</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="155"/>
-      <c r="D31" s="156">
+      <c r="C31" s="190"/>
+      <c r="D31" s="191">
         <v>60</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="G31" s="155" t="s">
+      <c r="E31" s="192"/>
+      <c r="G31" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156">
+      <c r="H31" s="190"/>
+      <c r="I31" s="191">
         <v>10040</v>
       </c>
-      <c r="J31" s="157"/>
+      <c r="J31" s="192"/>
     </row>
     <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156" t="s">
+      <c r="C32" s="190"/>
+      <c r="D32" s="191" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="157"/>
-      <c r="G32" s="155" t="s">
+      <c r="E32" s="192"/>
+      <c r="G32" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156">
+      <c r="H32" s="190"/>
+      <c r="I32" s="191">
         <v>15</v>
       </c>
-      <c r="J32" s="157"/>
+      <c r="J32" s="192"/>
     </row>
     <row r="33" spans="2:10" ht="13.5">
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="190" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="158">
+      <c r="C33" s="190"/>
+      <c r="D33" s="199">
         <v>5000</v>
       </c>
-      <c r="E33" s="159"/>
-      <c r="G33" s="155" t="s">
+      <c r="E33" s="200"/>
+      <c r="G33" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156" t="s">
+      <c r="H33" s="190"/>
+      <c r="I33" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="J33" s="157"/>
+      <c r="J33" s="192"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="160"/>
-      <c r="D34" s="161" t="s">
+      <c r="C34" s="196"/>
+      <c r="D34" s="188" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="162"/>
-      <c r="G34" s="155" t="s">
+      <c r="E34" s="189"/>
+      <c r="G34" s="190" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="155"/>
-      <c r="I34" s="158">
+      <c r="H34" s="190"/>
+      <c r="I34" s="199">
         <v>625</v>
       </c>
-      <c r="J34" s="159"/>
+      <c r="J34" s="200"/>
     </row>
     <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="G35" s="160" t="s">
+      <c r="G35" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="160"/>
-      <c r="I35" s="161" t="s">
+      <c r="H35" s="196"/>
+      <c r="I35" s="188" t="s">
         <v>210</v>
       </c>
-      <c r="J35" s="162"/>
+      <c r="J35" s="189"/>
     </row>
     <row r="36" spans="2:10" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -4520,106 +4597,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4654,11 +4654,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1"/>
     <row r="3" spans="1:21">
@@ -4882,7 +4882,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -4907,10 +4907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="169"/>
+      <c r="C1" s="198"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -5044,20 +5044,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3819</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" ref="J8:J38" ca="1" si="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" ref="K8:K9" ca="1" si="2">J8+L8</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -5072,32 +5072,32 @@
       <c r="O8" s="23">
         <v>0.3</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-140.1600555892278</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Q8" s="25">
         <v>80</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="24" t="e">
         <f t="shared" ref="R8:R9" si="4">Q8/10000*M8*H8</f>
-        <v>2.5111232876712331</v>
-      </c>
-      <c r="S8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="24" t="e">
         <f t="shared" ref="S8:S9" si="5">IF(P8&lt;=0,ABS(P8)+R8,P8-R8)</f>
-        <v>142.67117887689903</v>
-      </c>
-      <c r="T8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="26" t="e">
         <f t="shared" ref="T8:T9" si="6">S8/H8</f>
-        <v>3.7358255793898676E-2</v>
-      </c>
-      <c r="U8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-0.53933484009576205</v>
-      </c>
-      <c r="V8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-4.3385461414180782</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -5129,11 +5129,11 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43469</v>
+        <v>43470</v>
       </c>
       <c r="L9" s="10">
         <v>365</v>
@@ -5199,18 +5199,18 @@
       </c>
       <c r="H10" s="11">
         <f>RTD("wdf.rtq",,F10,"LastPrice")</f>
-        <v>3638</v>
+        <v>3601</v>
       </c>
       <c r="I10" s="11">
         <v>3500</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ref="K10" ca="1" si="8">J10+L10</f>
-        <v>43169</v>
+        <v>43170</v>
       </c>
       <c r="L10" s="10">
         <v>65</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="P10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>54.003142492731968</v>
+        <v>65.722195718007697</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -5238,19 +5238,19 @@
       </c>
       <c r="S10" s="13">
         <f t="shared" ref="S10" si="10">IF(P10&lt;=0,ABS(P10)+R10,P10-R10)</f>
-        <v>54.003142492731968</v>
+        <v>65.722195718007697</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" ref="T10" si="11">S10/H10</f>
-        <v>1.4844184302565136E-2</v>
+        <v>1.8251095728410913E-2</v>
       </c>
       <c r="U10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-0.29345383454710827</v>
+        <v>-0.3405827363849312</v>
       </c>
       <c r="V10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>5.0663248469913924</v>
+        <v>5.341227048509154</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ref="K11" ca="1" si="13">J11+L11</f>
-        <v>43135</v>
+        <v>43136</v>
       </c>
       <c r="L11" s="10">
         <v>31</v>
@@ -5360,11 +5360,11 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12" ca="1" si="18">J12+L12</f>
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="L12" s="10">
         <v>90</v>
@@ -5437,11 +5437,11 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ref="K13:K14" ca="1" si="23">J13+L13</f>
-        <v>43285</v>
+        <v>43286</v>
       </c>
       <c r="L13" s="10">
         <v>181</v>
@@ -5509,18 +5509,18 @@
       </c>
       <c r="H14" s="11">
         <f>RTD("wdf.rtq",,F14,"LastPrice")</f>
-        <v>3877</v>
+        <v>3796</v>
       </c>
       <c r="I14" s="11">
         <v>4100</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>43163</v>
+        <v>43164</v>
       </c>
       <c r="L14" s="10">
         <v>59</v>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="P14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>46.451217497358812</v>
+        <v>28.869997583493159</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
@@ -5548,19 +5548,19 @@
       </c>
       <c r="S14" s="13">
         <f t="shared" si="25"/>
-        <v>46.451217497358812</v>
+        <v>28.869997583493159</v>
       </c>
       <c r="T14" s="14">
         <f t="shared" si="26"/>
-        <v>1.1981227107907871E-2</v>
+        <v>7.6053734413838673E-3</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>0.25644585792292673</v>
+        <v>0.17998846212208264</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>4.7936523150848416</v>
+        <v>3.8241189654733034</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -5586,18 +5586,18 @@
       </c>
       <c r="H15" s="11">
         <f>RTD("wdf.rtq",,F15,"LastPrice")</f>
-        <v>15010</v>
+        <v>15045</v>
       </c>
       <c r="I15" s="11">
         <v>15600</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ref="K15:K16" ca="1" si="28">J15+L15</f>
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="L15" s="10">
         <v>90</v>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="P15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>110.4386955108389</v>
+        <v>119.11188619332552</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
@@ -5625,19 +5625,19 @@
       </c>
       <c r="S15" s="13">
         <f t="shared" ref="S15:S16" si="30">IF(P15&lt;=0,ABS(P15)+R15,P15-R15)</f>
-        <v>110.4386955108389</v>
+        <v>119.11188619332552</v>
       </c>
       <c r="T15" s="14">
         <f t="shared" ref="T15:T16" si="31">S15/H15</f>
-        <v>7.3576745843330375E-3</v>
+        <v>7.9170412890213031E-3</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>0.24091402015073982</v>
+        <v>0.25476012619947142</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>22.475887789547642</v>
+        <v>23.212324437745792</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -5665,18 +5665,18 @@
       </c>
       <c r="H16" s="11">
         <f>RTD("wdf.rtq",,F16,"LastPrice")</f>
-        <v>15010</v>
+        <v>15045</v>
       </c>
       <c r="I16" s="11">
         <v>15750</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="28"/>
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="L16" s="10">
         <v>90</v>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="P16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G16,$H16,$I16,$M16,$C$3,$N16,$O16,$C$4)*E16</f>
-        <v>80.593218034947313</v>
+        <v>87.401880036144576</v>
       </c>
       <c r="Q16" s="15">
         <v>0</v>
@@ -5704,19 +5704,19 @@
       </c>
       <c r="S16" s="13">
         <f t="shared" si="30"/>
-        <v>80.593218034947313</v>
+        <v>87.401880036144576</v>
       </c>
       <c r="T16" s="14">
         <f t="shared" si="31"/>
-        <v>5.3693016678845644E-3</v>
+        <v>5.8093639106776059E-3</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G16,$H16,$I16,$M16,$C$3,$N16,$O16,$C$4)*E16</f>
-        <v>0.18854055367683031</v>
+        <v>0.20059681203292712</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G16,$H16,$I16,$M16,$C$3,$N16,$O16,$C$4)*E16</f>
-        <v>19.479792486708902</v>
+        <v>20.277441965796925</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -5741,18 +5741,18 @@
       </c>
       <c r="H17" s="11">
         <f>RTD("wdf.rtq",,F17,"LastPrice")</f>
-        <v>15010</v>
+        <v>15045</v>
       </c>
       <c r="I17" s="10">
         <v>15700</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17" ca="1" si="33">J17+L17</f>
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="L17" s="10">
         <v>90</v>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="P17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
-        <v>89.713165964648397</v>
+        <v>97.112608523444123</v>
       </c>
       <c r="Q17" s="15">
         <v>0</v>
@@ -5780,19 +5780,19 @@
       </c>
       <c r="S17" s="13">
         <f t="shared" ref="S17" si="35">IF(P17&lt;=0,ABS(P17)+R17,P17-R17)</f>
-        <v>89.713165964648397</v>
+        <v>97.112608523444123</v>
       </c>
       <c r="T17" s="14">
         <f t="shared" ref="T17" si="36">S17/H17</f>
-        <v>5.9768931355528576E-3</v>
+        <v>6.4548094731435111E-3</v>
       </c>
       <c r="U17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
-        <v>0.20511250875188125</v>
+        <v>0.21778180578166939</v>
       </c>
       <c r="V17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
-        <v>20.501700646920881</v>
+        <v>21.285402350719323</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="12" thickBot="1">
@@ -5823,11 +5823,11 @@
       </c>
       <c r="J18" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K18" s="127">
         <f t="shared" ref="K18:K22" ca="1" si="38">J18+L18</f>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="L18" s="125">
         <v>64</v>
@@ -5895,18 +5895,18 @@
       </c>
       <c r="H19" s="134">
         <f>RTD("wdf.rtq",,F19,"LastPrice")</f>
-        <v>14115</v>
+        <v>14025</v>
       </c>
       <c r="I19" s="134">
         <v>13000</v>
       </c>
       <c r="J19" s="135">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K19" s="135">
         <f ca="1">J19+L19</f>
-        <v>43191</v>
+        <v>43192</v>
       </c>
       <c r="L19" s="133">
         <v>87</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="P19" s="138">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G19,$H19,$I19,$M19,$C$3,$N19,$O19,$C$4)*E19</f>
-        <v>-456.40644315198733</v>
+        <v>-482.37066277378108</v>
       </c>
       <c r="Q19" s="139">
         <v>0</v>
@@ -5934,19 +5934,19 @@
       </c>
       <c r="S19" s="138">
         <f>IF(P19&lt;=0,ABS(P19)+R19,P19-R19)</f>
-        <v>456.40644315198733</v>
+        <v>482.37066277378108</v>
       </c>
       <c r="T19" s="140">
         <f>S19/H19</f>
-        <v>3.2334852508111044E-2</v>
+        <v>3.4393630144298117E-2</v>
       </c>
       <c r="U19" s="138">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G19,$H19,$I19,$M19,$C$3,$N19,$O19,$C$4)*E19</f>
-        <v>0.28205368480485049</v>
+        <v>0.29498809708456974</v>
       </c>
       <c r="V19" s="141">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G19,$H19,$I19,$M19,$C$3,$N19,$O19,$C$4)*E19</f>
-        <v>-23.219639873129609</v>
+        <v>-23.562238962990023</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -5972,18 +5972,18 @@
       </c>
       <c r="H20" s="11">
         <f>RTD("wdf.rtq",,F20,"LastPrice")</f>
-        <v>1367</v>
+        <v>1332.5</v>
       </c>
       <c r="I20" s="11">
         <v>1200</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43190</v>
+        <v>43191</v>
       </c>
       <c r="L20" s="10">
         <v>86</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="P20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G20,$H20,$I20,$M20,$C$3,$N20,$O20,$C$4)*E20</f>
-        <v>-35.080773530832005</v>
+        <v>-43.227515758730021</v>
       </c>
       <c r="Q20" s="15">
         <v>0</v>
@@ -6011,19 +6011,19 @@
       </c>
       <c r="S20" s="13">
         <f t="shared" si="40"/>
-        <v>35.080773530832005</v>
+        <v>43.227515758730021</v>
       </c>
       <c r="T20" s="14">
         <f t="shared" si="41"/>
-        <v>2.5662599510484274E-2</v>
+        <v>3.2440912389290824E-2</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G20,$H20,$I20,$M20,$C$3,$N20,$O20,$C$4)*E20</f>
-        <v>0.21581278493840728</v>
+        <v>0.25730646928820988</v>
       </c>
       <c r="V20" s="143">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G20,$H20,$I20,$M20,$C$3,$N20,$O20,$C$4)*E20</f>
-        <v>-1.9389561941077034</v>
+        <v>-2.0817959191370221</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -6051,18 +6051,18 @@
       </c>
       <c r="H21" s="11">
         <f>RTD("wdf.rtq",,F21,"LastPrice")</f>
-        <v>543.5</v>
+        <v>530</v>
       </c>
       <c r="I21" s="11">
         <v>450</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="L21" s="10">
         <v>100</v>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="P21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G21,$H21,$I21,$M21,$C$3,$N21,$O21,$C$4)*E21</f>
-        <v>-6.4702117896997891</v>
+        <v>-8.3553251191831919</v>
       </c>
       <c r="Q21" s="15">
         <v>0</v>
@@ -6090,19 +6090,19 @@
       </c>
       <c r="S21" s="13">
         <f t="shared" si="40"/>
-        <v>6.4702117896997891</v>
+        <v>8.3553251191831919</v>
       </c>
       <c r="T21" s="14">
         <f t="shared" si="41"/>
-        <v>1.1904713504507431E-2</v>
+        <v>1.5764764375817343E-2</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G21,$H21,$I21,$M21,$C$3,$N21,$O21,$C$4)*E21</f>
-        <v>0.12443569147606581</v>
+        <v>0.15576727516801725</v>
       </c>
       <c r="V21" s="143">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G21,$H21,$I21,$M21,$C$3,$N21,$O21,$C$4)*E21</f>
-        <v>-0.58262301954857776</v>
+        <v>-0.66178812334905501</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -6127,18 +6127,18 @@
       </c>
       <c r="H22" s="11">
         <f>RTD("wdf.rtq",,F22,"LastPrice")</f>
-        <v>3819</v>
+        <v>3762</v>
       </c>
       <c r="I22" s="10">
         <v>4000</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="38"/>
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="L22" s="10">
         <v>100</v>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="P22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G22,$H22,$I22,$M22,$C$3,$N22,$O22,$C$4)*E22</f>
-        <v>-132.99960528447809</v>
+        <v>-111.92426088410116</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
@@ -6166,19 +6166,19 @@
       </c>
       <c r="S22" s="13">
         <f t="shared" si="40"/>
-        <v>132.99960528447809</v>
+        <v>111.92426088410116</v>
       </c>
       <c r="T22" s="14">
         <f t="shared" si="41"/>
-        <v>3.4825767291039041E-2</v>
+        <v>2.9751265519431462E-2</v>
       </c>
       <c r="U22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G22,$H22,$I22,$M22,$C$3,$N22,$O22,$C$4)*E22</f>
-        <v>-0.39058320307958638</v>
+        <v>-0.34904882289765737</v>
       </c>
       <c r="V22" s="143">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G22,$H22,$I22,$M22,$C$3,$N22,$O22,$C$4)*E22</f>
-        <v>-7.6419929650371614</v>
+        <v>-7.2599877740797183</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="12" thickBot="1">
@@ -6209,11 +6209,11 @@
       </c>
       <c r="J23" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K23" s="147">
         <f t="shared" ref="K23:K26" ca="1" si="44">J23+L23</f>
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="L23" s="145">
         <v>100</v>
@@ -6284,11 +6284,11 @@
       </c>
       <c r="J24" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K24" s="127">
         <f t="shared" ca="1" si="44"/>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L24" s="125">
         <v>63</v>
@@ -6359,11 +6359,11 @@
       </c>
       <c r="J25" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K25" s="127">
         <f t="shared" ca="1" si="44"/>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L25" s="125">
         <v>63</v>
@@ -6434,11 +6434,11 @@
       </c>
       <c r="J26" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K26" s="127">
         <f t="shared" ca="1" si="44"/>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L26" s="125">
         <v>63</v>
@@ -6503,18 +6503,18 @@
       </c>
       <c r="H27" s="126">
         <f>RTD("wdf.rtq",,F27,"LastPrice")</f>
-        <v>2090</v>
+        <v>2043</v>
       </c>
       <c r="I27" s="125">
         <v>2112</v>
       </c>
       <c r="J27" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K27" s="127">
         <f t="shared" ref="K27" ca="1" si="49">J27+L27</f>
-        <v>43119</v>
+        <v>43120</v>
       </c>
       <c r="L27" s="125">
         <v>15</v>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="P27" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G27,$H27,$I27,$M27,$C$3,$N27,$O27,$C$4)*E27</f>
-        <v>39.015822297378463</v>
+        <v>21.772212841320879</v>
       </c>
       <c r="Q27" s="130">
         <v>0</v>
@@ -6542,19 +6542,19 @@
       </c>
       <c r="S27" s="124">
         <f t="shared" ref="S27" si="51">IF(P27&lt;=0,ABS(P27)+R27,P27-R27)</f>
-        <v>39.015822297378463</v>
+        <v>21.772212841320879</v>
       </c>
       <c r="T27" s="131">
         <f t="shared" ref="T27" si="52">S27/H27</f>
-        <v>1.8667857558554289E-2</v>
+        <v>1.0656981322232442E-2</v>
       </c>
       <c r="U27" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G27,$H27,$I27,$M27,$C$3,$N27,$O27,$C$4)*E27</f>
-        <v>0.44052442825659455</v>
+        <v>0.29587130457002786</v>
       </c>
       <c r="V27" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G27,$H27,$I27,$M27,$C$3,$N27,$O27,$C$4)*E27</f>
-        <v>1.6702732006418159</v>
+        <v>1.4300538933421194</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -6579,18 +6579,18 @@
       </c>
       <c r="H28" s="126">
         <f>RTD("wdf.rtq",,F28,"LastPrice")</f>
-        <v>2090</v>
+        <v>2043</v>
       </c>
       <c r="I28" s="125">
         <v>2032</v>
       </c>
       <c r="J28" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K28" s="127">
         <f t="shared" ref="K28:K30" ca="1" si="54">J28+L28</f>
-        <v>43119</v>
+        <v>43120</v>
       </c>
       <c r="L28" s="125">
         <v>15</v>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="P28" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G28,$H28,$I28,$M28,$C$3,$N28,$O28,$C$4)*E28</f>
-        <v>24.7429472517465</v>
+        <v>42.445949843370954</v>
       </c>
       <c r="Q28" s="130">
         <v>0</v>
@@ -6618,19 +6618,19 @@
       </c>
       <c r="S28" s="124">
         <f t="shared" ref="S28:S30" si="56">IF(P28&lt;=0,ABS(P28)+R28,P28-R28)</f>
-        <v>24.7429472517465</v>
+        <v>42.445949843370954</v>
       </c>
       <c r="T28" s="131">
         <f t="shared" ref="T28:T30" si="57">S28/H28</f>
-        <v>1.1838730742462441E-2</v>
+        <v>2.0776284798517355E-2</v>
       </c>
       <c r="U28" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G28,$H28,$I28,$M28,$C$3,$N28,$O28,$C$4)*E28</f>
-        <v>-0.30543539016889554</v>
+        <v>-0.45138422519244159</v>
       </c>
       <c r="V28" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G28,$H28,$I28,$M28,$C$3,$N28,$O28,$C$4)*E28</f>
-        <v>1.4841597088637855</v>
+        <v>1.6388047011682829</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="12" thickBot="1">
@@ -6655,18 +6655,18 @@
       </c>
       <c r="H29" s="126">
         <f>RTD("wdf.rtq",,F29,"LastPrice")</f>
-        <v>3638</v>
+        <v>3601</v>
       </c>
       <c r="I29" s="125">
         <v>3550</v>
       </c>
       <c r="J29" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K29" s="127">
         <f t="shared" ca="1" si="54"/>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L29" s="125">
         <v>63</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="P29" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G29,$H29,$I29,$M29,$C$3,$N29,$O29,$C$4)*E29</f>
-        <v>59.227589956049087</v>
+        <v>73.044858158979878</v>
       </c>
       <c r="Q29" s="130">
         <v>0</v>
@@ -6694,99 +6694,99 @@
       </c>
       <c r="S29" s="124">
         <f t="shared" si="56"/>
-        <v>59.227589956049087</v>
+        <v>73.044858158979878</v>
       </c>
       <c r="T29" s="131">
         <f t="shared" si="57"/>
-        <v>1.6280261120409315E-2</v>
+        <v>2.0284603765337372E-2</v>
       </c>
       <c r="U29" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G29,$H29,$I29,$M29,$C$3,$N29,$O29,$C$4)*E29</f>
-        <v>-0.34524198570125009</v>
+        <v>-0.40219195373083494</v>
       </c>
       <c r="V29" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G29,$H29,$I29,$M29,$C$3,$N29,$O29,$C$4)*E29</f>
-        <v>5.3327076262000901</v>
+        <v>5.5401306256228509</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="176" t="s">
+      <c r="D30" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="176">
+      <c r="E30" s="156">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="F30" s="176" t="s">
+      <c r="F30" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="177">
+      <c r="H30" s="157">
         <f>RTD("wdf.rtq",,F30,"LastPrice")</f>
-        <v>3715</v>
-      </c>
-      <c r="I30" s="176">
+        <v>3664</v>
+      </c>
+      <c r="I30" s="156">
         <v>3500</v>
       </c>
-      <c r="J30" s="178">
+      <c r="J30" s="158">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
-      </c>
-      <c r="K30" s="178">
+        <v>43105</v>
+      </c>
+      <c r="K30" s="158">
         <f t="shared" ca="1" si="54"/>
-        <v>43167</v>
-      </c>
-      <c r="L30" s="176">
+        <v>43168</v>
+      </c>
+      <c r="L30" s="156">
         <v>63</v>
       </c>
-      <c r="M30" s="179">
+      <c r="M30" s="159">
         <f>(L30-5)/365</f>
         <v>0.15890410958904111</v>
       </c>
-      <c r="N30" s="179">
-        <v>0</v>
-      </c>
-      <c r="O30" s="180">
+      <c r="N30" s="159">
+        <v>0</v>
+      </c>
+      <c r="O30" s="160">
         <v>0.19</v>
       </c>
-      <c r="P30" s="181">
+      <c r="P30" s="161">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G30,$H30,$I30,$M30,$C$3,$N30,$O30,$C$4)*E30</f>
-        <v>33.460894798083245</v>
-      </c>
-      <c r="Q30" s="182">
-        <v>0</v>
-      </c>
-      <c r="R30" s="181">
+        <v>45.245292753506419</v>
+      </c>
+      <c r="Q30" s="162">
+        <v>0</v>
+      </c>
+      <c r="R30" s="161">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="S30" s="181">
+      <c r="S30" s="161">
         <f t="shared" si="56"/>
-        <v>33.460894798083245</v>
-      </c>
-      <c r="T30" s="183">
+        <v>45.245292753506419</v>
+      </c>
+      <c r="T30" s="163">
         <f t="shared" si="57"/>
-        <v>9.0069703359578045E-3</v>
-      </c>
-      <c r="U30" s="181">
+        <v>1.2348606100847821E-2</v>
+      </c>
+      <c r="U30" s="161">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G30,$H30,$I30,$M30,$C$3,$N30,$O30,$C$4)*E30</f>
-        <v>-0.20403996677487157</v>
-      </c>
-      <c r="V30" s="184">
+        <v>-0.25945607682729133</v>
+      </c>
+      <c r="V30" s="164">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G30,$H30,$I30,$M30,$C$3,$N30,$O30,$C$4)*E30</f>
-        <v>4.1876290239162017</v>
+        <v>4.7230847430070639</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="165" t="s">
         <v>198</v>
       </c>
       <c r="C31" s="125" t="s">
@@ -6807,18 +6807,18 @@
       </c>
       <c r="H31" s="126">
         <f>RTD("wdf.rtq",,F31,"LastPrice")</f>
-        <v>3715</v>
+        <v>3664</v>
       </c>
       <c r="I31" s="125">
         <v>3550</v>
       </c>
       <c r="J31" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K31" s="127">
         <f t="shared" ref="K31:K33" ca="1" si="59">J31+L31</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L31" s="125">
         <v>63</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="P31" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G31,$H31,$I31,$M31,$C$3,$N31,$O31,$C$4)*E31</f>
-        <v>46.241104016573217</v>
+        <v>61.114659612544301</v>
       </c>
       <c r="Q31" s="130">
         <v>0</v>
@@ -6846,19 +6846,19 @@
       </c>
       <c r="S31" s="124">
         <f t="shared" ref="S31:S33" si="61">IF(P31&lt;=0,ABS(P31)+R31,P31-R31)</f>
-        <v>46.241104016573217</v>
+        <v>61.114659612544301</v>
       </c>
       <c r="T31" s="131">
         <f t="shared" ref="T31:T33" si="62">S31/H31</f>
-        <v>1.2447134324784177E-2</v>
+        <v>1.6679765178096152E-2</v>
       </c>
       <c r="U31" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G31,$H31,$I31,$M31,$C$3,$N31,$O31,$C$4)*E31</f>
-        <v>-0.26100215793576353</v>
-      </c>
-      <c r="V31" s="186">
+        <v>-0.32345524900847522</v>
+      </c>
+      <c r="V31" s="166">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G31,$H31,$I31,$M31,$C$3,$N31,$O31,$C$4)*E31</f>
-        <v>4.8035043410557705</v>
+        <v>5.2355260051872392</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="12" thickBot="1">
@@ -6883,18 +6883,18 @@
       </c>
       <c r="H32" s="146">
         <f>RTD("wdf.rtq",,F32,"LastPrice")</f>
-        <v>3715</v>
+        <v>3664</v>
       </c>
       <c r="I32" s="145">
         <v>3600</v>
       </c>
       <c r="J32" s="147">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K32" s="147">
         <f t="shared" ca="1" si="59"/>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="L32" s="145">
         <v>63</v>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="P32" s="150">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G32,$H32,$I32,$M32,$C$3,$N32,$O32,$C$4)*E32</f>
-        <v>62.171558643156686</v>
+        <v>80.415587988584548</v>
       </c>
       <c r="Q32" s="151">
         <v>0</v>
@@ -6922,98 +6922,98 @@
       </c>
       <c r="S32" s="150">
         <f t="shared" si="61"/>
-        <v>62.171558643156686</v>
+        <v>80.415587988584548</v>
       </c>
       <c r="T32" s="152">
         <f t="shared" si="62"/>
-        <v>1.6735278235035449E-2</v>
+        <v>2.194748580474469E-2</v>
       </c>
       <c r="U32" s="150">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G32,$H32,$I32,$M32,$C$3,$N32,$O32,$C$4)*E32</f>
-        <v>-0.32422729601648825</v>
+        <v>-0.39212770091126004</v>
       </c>
       <c r="V32" s="153">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G32,$H32,$I32,$M32,$C$3,$N32,$O32,$C$4)*E32</f>
-        <v>5.3136029709480681</v>
+        <v>5.5992278192871936</v>
       </c>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="175" t="s">
+      <c r="B33" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="176">
+      <c r="E33" s="156">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
-      <c r="F33" s="176" t="s">
+      <c r="F33" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="G33" s="176" t="s">
+      <c r="G33" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="H33" s="177">
+      <c r="H33" s="157">
         <v>546</v>
       </c>
-      <c r="I33" s="177">
+      <c r="I33" s="157">
         <v>510</v>
       </c>
-      <c r="J33" s="178">
+      <c r="J33" s="158">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
-      </c>
-      <c r="K33" s="178">
+        <v>43105</v>
+      </c>
+      <c r="K33" s="158">
         <f t="shared" ca="1" si="59"/>
-        <v>43136</v>
-      </c>
-      <c r="L33" s="176">
+        <v>43137</v>
+      </c>
+      <c r="L33" s="156">
         <v>32</v>
       </c>
-      <c r="M33" s="179">
-        <f>(L33)/365</f>
+      <c r="M33" s="159">
+        <f t="shared" ref="M33:M38" si="63">(L33)/365</f>
         <v>8.7671232876712329E-2</v>
       </c>
-      <c r="N33" s="179">
-        <v>0</v>
-      </c>
-      <c r="O33" s="180">
+      <c r="N33" s="159">
+        <v>0</v>
+      </c>
+      <c r="O33" s="160">
         <v>0.32</v>
       </c>
-      <c r="P33" s="181">
+      <c r="P33" s="161">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G33,$H33,$I33,$M33,$C$3,$N33,$O33,$C$4)*E33</f>
         <v>6.8898925316476607</v>
       </c>
-      <c r="Q33" s="182">
-        <v>0</v>
-      </c>
-      <c r="R33" s="181">
+      <c r="Q33" s="162">
+        <v>0</v>
+      </c>
+      <c r="R33" s="161">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="S33" s="181">
+      <c r="S33" s="161">
         <f t="shared" si="61"/>
         <v>6.8898925316476607</v>
       </c>
-      <c r="T33" s="183">
+      <c r="T33" s="163">
         <f t="shared" si="62"/>
         <v>1.2618850790563482E-2</v>
       </c>
-      <c r="U33" s="181">
+      <c r="U33" s="161">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G33,$H33,$I33,$M33,$C$3,$N33,$O33,$C$4)*E33</f>
         <v>-0.22107785454039686</v>
       </c>
-      <c r="V33" s="184">
+      <c r="V33" s="164">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G33,$H33,$I33,$M33,$C$3,$N33,$O33,$C$4)*E33</f>
         <v>0.47956686540241833</v>
       </c>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="185" t="s">
+      <c r="B34" s="165" t="s">
         <v>198</v>
       </c>
       <c r="C34" s="125" t="s">
@@ -7023,7 +7023,7 @@
         <v>151</v>
       </c>
       <c r="E34" s="125">
-        <f t="shared" ref="E34" si="63">IF(D34="中金买入",1,-1)</f>
+        <f t="shared" ref="E34" si="64">IF(D34="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="F34" s="125" t="s">
@@ -7040,17 +7040,17 @@
       </c>
       <c r="J34" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K34" s="127">
-        <f t="shared" ref="K34" ca="1" si="64">J34+L34</f>
-        <v>43136</v>
+        <f t="shared" ref="K34" ca="1" si="65">J34+L34</f>
+        <v>43137</v>
       </c>
       <c r="L34" s="125">
         <v>32</v>
       </c>
       <c r="M34" s="128">
-        <f>(L34)/365</f>
+        <f t="shared" si="63"/>
         <v>8.7671232876712329E-2</v>
       </c>
       <c r="N34" s="128">
@@ -7067,28 +7067,28 @@
         <v>0</v>
       </c>
       <c r="R34" s="124">
-        <f t="shared" ref="R34" si="65">Q34/10000*M34*H34</f>
+        <f t="shared" ref="R34" si="66">Q34/10000*M34*H34</f>
         <v>0</v>
       </c>
       <c r="S34" s="124">
-        <f t="shared" ref="S34" si="66">IF(P34&lt;=0,ABS(P34)+R34,P34-R34)</f>
+        <f t="shared" ref="S34" si="67">IF(P34&lt;=0,ABS(P34)+R34,P34-R34)</f>
         <v>9.7326858104572409</v>
       </c>
       <c r="T34" s="131">
-        <f t="shared" ref="T34" si="67">S34/H34</f>
+        <f t="shared" ref="T34" si="68">S34/H34</f>
         <v>1.7825431887284325E-2</v>
       </c>
       <c r="U34" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G34,$H34,$I34,$M34,$C$3,$N34,$O34,$C$4)*E34</f>
         <v>-0.28644919410538705</v>
       </c>
-      <c r="V34" s="186">
+      <c r="V34" s="166">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G34,$H34,$I34,$M34,$C$3,$N34,$O34,$C$4)*E34</f>
         <v>0.54961365697697318</v>
       </c>
     </row>
     <row r="35" spans="2:22" ht="12" thickBot="1">
-      <c r="B35" s="185" t="s">
+      <c r="B35" s="165" t="s">
         <v>198</v>
       </c>
       <c r="C35" s="125" t="s">
@@ -7098,7 +7098,7 @@
         <v>151</v>
       </c>
       <c r="E35" s="125">
-        <f t="shared" ref="E35:E37" si="68">IF(D35="中金买入",1,-1)</f>
+        <f t="shared" ref="E35:E37" si="69">IF(D35="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="F35" s="125" t="s">
@@ -7115,17 +7115,17 @@
       </c>
       <c r="J35" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K35" s="127">
-        <f t="shared" ref="K35:K37" ca="1" si="69">J35+L35</f>
-        <v>43136</v>
+        <f t="shared" ref="K35:K37" ca="1" si="70">J35+L35</f>
+        <v>43137</v>
       </c>
       <c r="L35" s="125">
         <v>32</v>
       </c>
       <c r="M35" s="128">
-        <f>(L35)/365</f>
+        <f t="shared" si="63"/>
         <v>8.7671232876712329E-2</v>
       </c>
       <c r="N35" s="128">
@@ -7142,103 +7142,103 @@
         <v>0</v>
       </c>
       <c r="R35" s="124">
-        <f t="shared" ref="R35:R37" si="70">Q35/10000*M35*H35</f>
+        <f t="shared" ref="R35:R37" si="71">Q35/10000*M35*H35</f>
         <v>0</v>
       </c>
       <c r="S35" s="124">
-        <f t="shared" ref="S35:S37" si="71">IF(P35&lt;=0,ABS(P35)+R35,P35-R35)</f>
+        <f t="shared" ref="S35:S37" si="72">IF(P35&lt;=0,ABS(P35)+R35,P35-R35)</f>
         <v>22.727982589592102</v>
       </c>
       <c r="T35" s="131">
-        <f t="shared" ref="T35:T37" si="72">S35/H35</f>
+        <f t="shared" ref="T35:T37" si="73">S35/H35</f>
         <v>4.1626341739179673E-2</v>
       </c>
       <c r="U35" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G35,$H35,$I35,$M35,$C$3,$N35,$O35,$C$4)*E35</f>
         <v>-0.51093529337435939</v>
       </c>
-      <c r="V35" s="186">
+      <c r="V35" s="166">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G35,$H35,$I35,$M35,$C$3,$N35,$O35,$C$4)*E35</f>
         <v>0.64354257352886179</v>
       </c>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="175" t="s">
+      <c r="B36" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="176" t="s">
+      <c r="D36" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="176">
-        <f t="shared" si="68"/>
+      <c r="E36" s="156">
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="F36" s="176" t="s">
+      <c r="F36" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="G36" s="176" t="s">
+      <c r="G36" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="177">
+      <c r="H36" s="157">
         <v>546</v>
       </c>
-      <c r="I36" s="177">
+      <c r="I36" s="157">
         <v>510</v>
       </c>
-      <c r="J36" s="178">
+      <c r="J36" s="158">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
-      </c>
-      <c r="K36" s="178">
-        <f t="shared" ca="1" si="69"/>
-        <v>43141</v>
-      </c>
-      <c r="L36" s="176">
+        <v>43105</v>
+      </c>
+      <c r="K36" s="158">
+        <f t="shared" ca="1" si="70"/>
+        <v>43142</v>
+      </c>
+      <c r="L36" s="156">
         <v>37</v>
       </c>
-      <c r="M36" s="179">
-        <f>(L36)/365</f>
+      <c r="M36" s="159">
+        <f t="shared" si="63"/>
         <v>0.10136986301369863</v>
       </c>
-      <c r="N36" s="179">
-        <v>0</v>
-      </c>
-      <c r="O36" s="180">
+      <c r="N36" s="159">
+        <v>0</v>
+      </c>
+      <c r="O36" s="160">
         <v>0.32</v>
       </c>
-      <c r="P36" s="181">
+      <c r="P36" s="161">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G36,$H36,$I36,$M36,$C$3,$N36,$O36,$C$4)*E36</f>
         <v>8.0644623609340158</v>
       </c>
-      <c r="Q36" s="182">
-        <v>0</v>
-      </c>
-      <c r="R36" s="181">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="181">
+      <c r="Q36" s="162">
+        <v>0</v>
+      </c>
+      <c r="R36" s="161">
         <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="161">
+        <f t="shared" si="72"/>
         <v>8.0644623609340158</v>
       </c>
-      <c r="T36" s="183">
-        <f t="shared" si="72"/>
+      <c r="T36" s="163">
+        <f t="shared" si="73"/>
         <v>1.4770077584128235E-2</v>
       </c>
-      <c r="U36" s="181">
+      <c r="U36" s="161">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G36,$H36,$I36,$M36,$C$3,$N36,$O36,$C$4)*E36</f>
         <v>-0.23515784413916663</v>
       </c>
-      <c r="V36" s="184">
+      <c r="V36" s="164">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G36,$H36,$I36,$M36,$C$3,$N36,$O36,$C$4)*E36</f>
         <v>0.53382241191216906</v>
       </c>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="185" t="s">
+      <c r="B37" s="165" t="s">
         <v>198</v>
       </c>
       <c r="C37" s="125" t="s">
@@ -7248,7 +7248,7 @@
         <v>151</v>
       </c>
       <c r="E37" s="125">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="F37" s="125" t="s">
@@ -7265,17 +7265,17 @@
       </c>
       <c r="J37" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K37" s="127">
-        <f t="shared" ca="1" si="69"/>
-        <v>43141</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>43142</v>
       </c>
       <c r="L37" s="125">
         <v>37</v>
       </c>
       <c r="M37" s="128">
-        <f>(L37)/365</f>
+        <f t="shared" si="63"/>
         <v>0.10136986301369863</v>
       </c>
       <c r="N37" s="128">
@@ -7292,28 +7292,28 @@
         <v>0</v>
       </c>
       <c r="R37" s="124">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="S37" s="124">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>11.066248447728583</v>
       </c>
       <c r="T37" s="131">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2.0267854299869201E-2</v>
       </c>
       <c r="U37" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G37,$H37,$I37,$M37,$C$3,$N37,$O37,$C$4)*E37</f>
         <v>-0.2975135026659359</v>
       </c>
-      <c r="V37" s="186">
+      <c r="V37" s="166">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G37,$H37,$I37,$M37,$C$3,$N37,$O37,$C$4)*E37</f>
         <v>0.60141670001236491</v>
       </c>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="185" t="s">
+      <c r="B38" s="165" t="s">
         <v>198</v>
       </c>
       <c r="C38" s="125" t="s">
@@ -7323,7 +7323,7 @@
         <v>151</v>
       </c>
       <c r="E38" s="125">
-        <f t="shared" ref="E38" si="73">IF(D38="中金买入",1,-1)</f>
+        <f t="shared" ref="E38" si="74">IF(D38="中金买入",1,-1)</f>
         <v>1</v>
       </c>
       <c r="F38" s="125" t="s">
@@ -7340,17 +7340,17 @@
       </c>
       <c r="J38" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K38" s="127">
-        <f t="shared" ref="K38" ca="1" si="74">J38+L38</f>
-        <v>43141</v>
+        <f t="shared" ref="K38" ca="1" si="75">J38+L38</f>
+        <v>43142</v>
       </c>
       <c r="L38" s="125">
         <v>37</v>
       </c>
       <c r="M38" s="128">
-        <f>(L38)/365</f>
+        <f t="shared" si="63"/>
         <v>0.10136986301369863</v>
       </c>
       <c r="N38" s="128">
@@ -7367,22 +7367,22 @@
         <v>0</v>
       </c>
       <c r="R38" s="124">
-        <f t="shared" ref="R38" si="75">Q38/10000*M38*H38</f>
+        <f t="shared" ref="R38" si="76">Q38/10000*M38*H38</f>
         <v>0</v>
       </c>
       <c r="S38" s="124">
-        <f t="shared" ref="S38" si="76">IF(P38&lt;=0,ABS(P38)+R38,P38-R38)</f>
+        <f t="shared" ref="S38" si="77">IF(P38&lt;=0,ABS(P38)+R38,P38-R38)</f>
         <v>24.272012559127006</v>
       </c>
       <c r="T38" s="131">
-        <f t="shared" ref="T38" si="77">S38/H38</f>
+        <f t="shared" ref="T38" si="78">S38/H38</f>
         <v>4.4454235456276567E-2</v>
       </c>
       <c r="U38" s="124">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G38,$H38,$I38,$M38,$C$3,$N38,$O38,$C$4)*E38</f>
         <v>-0.50722880084208555</v>
       </c>
-      <c r="V38" s="186">
+      <c r="V38" s="166">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G38,$H38,$I38,$M38,$C$3,$N38,$O38,$C$4)*E38</f>
         <v>0.69196211524428008</v>
       </c>
@@ -7484,10 +7484,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="169"/>
+      <c r="C1" s="198"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
@@ -7630,11 +7630,11 @@
       </c>
       <c r="J8" s="75">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K8" s="75">
         <f ca="1">J8+L8</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="L8" s="73">
         <v>30</v>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="J9" s="83">
         <f t="shared" ref="J9:L10" ca="1" si="0">J8</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K9" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="L9" s="81">
         <f t="shared" si="0"/>
@@ -7766,11 +7766,11 @@
       </c>
       <c r="J10" s="91">
         <f t="shared" ca="1" si="0"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K10" s="91">
         <f t="shared" ca="1" si="0"/>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="L10" s="89">
         <f t="shared" si="0"/>
@@ -7839,11 +7839,11 @@
       </c>
       <c r="J11" s="83">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K11" s="83">
         <f ca="1">J11+L11</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L11" s="81">
         <v>149</v>
@@ -7909,11 +7909,11 @@
       </c>
       <c r="J12" s="83">
         <f ca="1">J11</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K12" s="83">
         <f ca="1">K11</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L12" s="81">
         <f>L11</f>
@@ -7976,11 +7976,11 @@
       </c>
       <c r="J13" s="91">
         <f t="shared" ref="J13:K13" ca="1" si="2">J12</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K13" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L13" s="89">
         <f>L12</f>
@@ -8049,11 +8049,11 @@
       </c>
       <c r="J14" s="83">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K14" s="83">
         <f ca="1">J14+L14</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L14" s="81">
         <v>149</v>
@@ -8119,11 +8119,11 @@
       </c>
       <c r="J15" s="83">
         <f ca="1">J14</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K15" s="83">
         <f ca="1">K14</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L15" s="81">
         <f>L14</f>
@@ -8186,11 +8186,11 @@
       </c>
       <c r="J16" s="91">
         <f t="shared" ref="J16:K16" ca="1" si="3">J15</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K16" s="91">
         <f t="shared" ca="1" si="3"/>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L16" s="89">
         <f>L15</f>
@@ -8259,11 +8259,11 @@
       </c>
       <c r="J17" s="83">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K17" s="83">
         <f ca="1">J17+L17</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L17" s="81">
         <v>149</v>
@@ -8329,11 +8329,11 @@
       </c>
       <c r="J18" s="83">
         <f ca="1">J17</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K18" s="83">
         <f ca="1">K17</f>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L18" s="81">
         <f>L17</f>
@@ -8396,11 +8396,11 @@
       </c>
       <c r="J19" s="91">
         <f t="shared" ref="J19:K19" ca="1" si="4">J18</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K19" s="91">
         <f t="shared" ca="1" si="4"/>
-        <v>43253</v>
+        <v>43254</v>
       </c>
       <c r="L19" s="89">
         <f>L18</f>
@@ -8979,10 +8979,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="169"/>
+      <c r="C1" s="198"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -9128,9 +9128,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3819</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -9138,20 +9138,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="19" t="e">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>3925.7505698872742</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="65">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -9166,32 +9166,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-57.063074999303375</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="24" t="e">
         <f>T8/10000*P8*H8</f>
-        <v>2.5111232876712331</v>
-      </c>
-      <c r="V8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" s="24" t="e">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>59.574198286974607</v>
-      </c>
-      <c r="W8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W8" s="26" t="e">
         <f>V8/H8</f>
-        <v>1.5599423484413356E-2</v>
-      </c>
-      <c r="X8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.1754680882054771</v>
-      </c>
-      <c r="Y8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" s="24" t="e">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.5432480828008508</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -9233,11 +9233,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43284</v>
+        <v>43285</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -10929,10 +10929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="173"/>
+      <c r="C1" s="205"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -11062,20 +11062,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3819</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -11087,32 +11087,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>141.85961637315631</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="24" t="e">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.5111232876712331</v>
-      </c>
-      <c r="R8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="24" t="e">
         <f>O8+Q8</f>
-        <v>144.37073966082755</v>
-      </c>
-      <c r="S8" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="26" t="e">
         <f>R8/H8</f>
-        <v>3.7803283493277703E-2</v>
-      </c>
-      <c r="T8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.54356635556587207</v>
-      </c>
-      <c r="U8" s="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.3377238880376581</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -11144,11 +11144,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -11214,11 +11214,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
